--- a/Lists/test.xlsx
+++ b/Lists/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanzhihaolu/Documents/Davis Files/invertedScenes/Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA7D8CF3-FFAF-544C-BC2E-FF27EFDD6644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CF40A4-6AF3-634A-AE8D-CB0BC22D86D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="460" windowWidth="25040" windowHeight="14160" xr2:uid="{2FCBFAB1-27C4-FF43-A754-124B6E30C89B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="14160" xr2:uid="{2FCBFAB1-27C4-FF43-A754-124B6E30C89B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>SceneImage</t>
   </si>
@@ -51,9 +51,6 @@
     <t>bell.jpg</t>
   </si>
   <si>
-    <t>Bowl</t>
-  </si>
-  <si>
     <t>bin.jpg</t>
   </si>
   <si>
@@ -63,7 +60,22 @@
     <t>blender.jpg</t>
   </si>
   <si>
-    <t>Frying pan</t>
+    <t>Inverted</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Consistent</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Printer</t>
   </si>
 </sst>
 </file>
@@ -422,52 +434,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8370B7-42C7-B447-B28B-1CABFD84144F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Lists/test.xlsx
+++ b/Lists/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanzhihaolu/Documents/Davis Files/invertedScenes/Lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanzhihaolu/Documents/Graduate Files/InvertedScenes/invertedScenes-main/Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CF40A4-6AF3-634A-AE8D-CB0BC22D86D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49065AA7-9D08-F14B-8DEA-DBF54ECB7F30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="14160" xr2:uid="{2FCBFAB1-27C4-FF43-A754-124B6E30C89B}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
